--- a/instruments.xlsx
+++ b/instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vincent/Github/fireball2-etc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vincent/Github/generic-etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00632D82-7438-4942-86F2-8267EC9D36C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92D9D6-027E-C549-B959-08E5C76FEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,6 @@
     <definedName name="LU2ERGS">_xludf.LAMBDA(lu, wave_nm, redshift, lu*(6.62E-27 * 30000000000 / (wave_nm/(1+redshift) * 0.0000001)) * ( PI()/(180 * 3600))^2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -544,7 +543,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
           <t>A grating disperses the light, with resulting spectral resolution ranging from R ∼ 1600 at 1150  ̊A to R ∼ 3500 at 2750  ̊A (for the portion of the slit with 2′′ width)</t>
         </r>
@@ -1068,7 +1067,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
           <t>Spatial extension of the source in arcseconds</t>
         </r>
@@ -2353,7 +2352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="225">
   <si>
     <t>.</t>
   </si>
@@ -3082,6 +3081,9 @@
   </si>
   <si>
     <t>SCWI-CubeSat</t>
+  </si>
+  <si>
+    <t>Size_source</t>
   </si>
 </sst>
 </file>
@@ -4031,6 +4033,13 @@
     <xf numFmtId="168" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4080,34 +4089,11 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4121,6 +4107,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4156,7 +4150,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -4401,7 +4395,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -4503,7 +4497,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -4763,7 +4757,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -4825,7 +4819,7 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -4897,7 +4891,7 @@
                 <c:pt idx="28">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
@@ -5023,7 +5017,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -5085,7 +5079,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -5157,7 +5151,7 @@
                 <c:pt idx="28" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -5283,7 +5277,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -5345,7 +5339,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -5417,7 +5411,7 @@
                 <c:pt idx="28" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -5543,7 +5537,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -5605,7 +5599,7 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -5677,7 +5671,7 @@
                 <c:pt idx="28">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
@@ -5803,7 +5797,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -5865,7 +5859,7 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -5937,7 +5931,7 @@
                 <c:pt idx="28" formatCode="#,##0.00">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
@@ -6063,7 +6057,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -6125,7 +6119,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>45.026249999999997</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -6152,7 +6146,7 @@
                 <c:pt idx="13">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="#\ ##0.00000">
+                <c:pt idx="14" formatCode="#,##0.00000">
                   <c:v>2.5400000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0.00">
@@ -6197,7 +6191,7 @@
                 <c:pt idx="28" formatCode="#,##0.00">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -6323,7 +6317,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -6385,7 +6379,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -6412,7 +6406,7 @@
                 <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="#\ ##0.00000">
+                <c:pt idx="14" formatCode="#,##0.00000">
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0.00">
@@ -6457,7 +6451,7 @@
                 <c:pt idx="28" formatCode="#,##0.00">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -6583,7 +6577,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -6645,7 +6639,7 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -6717,7 +6711,7 @@
                 <c:pt idx="28" formatCode="#,##0.00">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
@@ -6843,7 +6837,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -6905,7 +6899,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -6977,7 +6971,7 @@
                 <c:pt idx="28" formatCode="#,##0.00">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -7103,7 +7097,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -7165,7 +7159,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -7237,7 +7231,7 @@
                 <c:pt idx="28" formatCode="General">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -7363,7 +7357,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -7425,7 +7419,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -7497,7 +7491,7 @@
                 <c:pt idx="28" formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -7623,7 +7617,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -7685,7 +7679,7 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
@@ -7757,7 +7751,7 @@
                 <c:pt idx="28" formatCode="#,##0.00">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
@@ -7873,7 +7867,7 @@
                   <c:v>Redshift</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>PSF_source</c:v>
+                  <c:v>Size_source</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Line_width</c:v>
@@ -7935,7 +7929,7 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#\ ##0.000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -8007,7 +8001,7 @@
                 <c:pt idx="28">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#\ ##0.0">
+                <c:pt idx="29" formatCode="#,##0.0">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="30">
@@ -8197,7 +8191,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -8676,7 +8670,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -8811,7 +8805,7 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="203" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -8906,7 +8900,7 @@
       <c r="AG2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="198"/>
+      <c r="A3" s="201"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
@@ -8959,7 +8953,7 @@
       <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:33" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="8" t="s">
         <v>48</v>
       </c>
@@ -9052,7 +9046,7 @@
       <c r="AG4" s="9"/>
     </row>
     <row r="5" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="204" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -9153,7 +9147,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
@@ -9252,7 +9246,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="198"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="16" t="s">
         <v>74</v>
       </c>
@@ -9352,7 +9346,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="198"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="16" t="s">
         <v>75</v>
       </c>
@@ -9469,7 +9463,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="198"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="16" t="s">
         <v>77</v>
       </c>
@@ -9568,7 +9562,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="16" t="s">
         <v>101</v>
       </c>
@@ -9669,7 +9663,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="203" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -9768,7 +9762,7 @@
       <c r="AG11" s="9"/>
     </row>
     <row r="12" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="8" t="s">
         <v>111</v>
       </c>
@@ -9897,7 +9891,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="8" t="s">
         <v>113</v>
       </c>
@@ -9999,7 +9993,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="198"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="8" t="s">
         <v>115</v>
       </c>
@@ -10109,7 +10103,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="198"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
@@ -10220,7 +10214,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="198"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -10327,7 +10321,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="205" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="55" t="s">
@@ -10428,7 +10422,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="198"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="60" t="s">
         <v>134</v>
       </c>
@@ -10527,7 +10521,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="198"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="55" t="s">
         <v>136</v>
       </c>
@@ -10653,7 +10647,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="198"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="55" t="s">
         <v>138</v>
       </c>
@@ -10752,7 +10746,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="198"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="71" t="s">
         <v>140</v>
       </c>
@@ -10816,10 +10810,10 @@
       <c r="V21" s="75">
         <v>5.0000000000000004E-18</v>
       </c>
-      <c r="W21" s="216">
+      <c r="W21" s="199">
         <v>1.1336522626586041E-17</v>
       </c>
-      <c r="X21" s="216">
+      <c r="X21" s="199">
         <v>1.0000000000000001E-18</v>
       </c>
       <c r="Y21" s="72">
@@ -10851,7 +10845,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="203" t="s">
+      <c r="A22" s="206" t="s">
         <v>142</v>
       </c>
       <c r="B22" s="77" t="s">
@@ -10950,7 +10944,7 @@
       <c r="AG22" s="78"/>
     </row>
     <row r="23" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="198"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="77" t="s">
         <v>144</v>
       </c>
@@ -11051,7 +11045,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="198"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="77" t="s">
         <v>145</v>
       </c>
@@ -11148,9 +11142,9 @@
       <c r="AG24" s="80"/>
     </row>
     <row r="25" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="198"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="77" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>147</v>
@@ -11247,7 +11241,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="198"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="77" t="s">
         <v>148</v>
       </c>
@@ -11375,7 +11369,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="198"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="77" t="s">
         <v>149</v>
       </c>
@@ -11474,7 +11468,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="198"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="77" t="s">
         <v>151</v>
       </c>
@@ -11575,7 +11569,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="204" t="s">
+      <c r="A29" s="207" t="s">
         <v>153</v>
       </c>
       <c r="B29" s="83" t="s">
@@ -11678,7 +11672,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="198"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="83" t="s">
         <v>156</v>
       </c>
@@ -11788,7 +11782,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="198"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="83" t="s">
         <v>157</v>
       </c>
@@ -11888,8 +11882,8 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="215" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="205" t="s">
+    <row r="32" spans="1:33" s="198" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="208" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="91" t="s">
@@ -11952,7 +11946,7 @@
       <c r="U32" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="V32" s="214" t="s">
+      <c r="V32" s="197" t="s">
         <v>167</v>
       </c>
       <c r="W32" s="91" t="s">
@@ -11976,7 +11970,7 @@
       <c r="AC32" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="AD32" s="214" t="s">
+      <c r="AD32" s="197" t="s">
         <v>172</v>
       </c>
       <c r="AE32" s="98" t="s">
@@ -11990,7 +11984,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="198"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="91" t="s">
         <v>175</v>
       </c>
@@ -12092,7 +12086,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="198"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="91" t="s">
         <v>177</v>
       </c>
@@ -12192,7 +12186,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="198"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="91" t="s">
         <v>178</v>
       </c>
@@ -12294,7 +12288,7 @@
       </c>
     </row>
     <row r="36" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="198"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="91" t="s">
         <v>180</v>
       </c>
@@ -12403,7 +12397,7 @@
       </c>
     </row>
     <row r="37" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="198"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="91" t="s">
         <v>182</v>
       </c>
@@ -12504,7 +12498,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="198"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="91" t="s">
         <v>183</v>
       </c>
@@ -12605,7 +12599,7 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="200" t="s">
         <v>185</v>
       </c>
       <c r="B39" s="115" t="s">
@@ -12709,7 +12703,7 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="198"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="119" t="s">
         <v>188</v>
       </c>
@@ -12811,7 +12805,7 @@
       </c>
     </row>
     <row r="41" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="198"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="119" t="s">
         <v>190</v>
       </c>
@@ -12913,7 +12907,7 @@
       </c>
     </row>
     <row r="42" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="198"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="119" t="s">
         <v>192</v>
       </c>
@@ -13012,7 +13006,7 @@
       </c>
     </row>
     <row r="43" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="199" t="s">
+      <c r="A43" s="202" t="s">
         <v>193</v>
       </c>
       <c r="B43" s="134" t="s">
@@ -13113,7 +13107,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="198"/>
+      <c r="A44" s="201"/>
       <c r="B44" s="119" t="s">
         <v>196</v>
       </c>
@@ -13213,7 +13207,7 @@
       </c>
     </row>
     <row r="45" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="198"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="119" t="s">
         <v>198</v>
       </c>
@@ -13352,7 +13346,7 @@
     <mergeCell ref="A32:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AG45">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13368,24 +13362,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:K45 O1:Q45 T1:T45 V1:V45 Y1:AA45 AD1:AF45 AB27">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(J1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J45 O15 G11:H11">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4:F4">
-    <cfRule type="containsBlanks" dxfId="2" priority="7">
+    <cfRule type="containsBlanks" dxfId="3" priority="7">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G45">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(I1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:H11 I1:J45 O15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:K45 O1:Q45 T1:T45 V1:V45 Y1:AA45 AD1:AF45 AB27">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(J1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
@@ -13399,14 +13393,7 @@
       <formula1>"BL-Ro=900,BM-Ro=2000,BH-Ro=4500"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E11:F11" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>"Slit:2""","Slit:4""","Slit:8""","Slit:16"""</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"Slit:2"",Slit:4"",Slit:8"",Slit:16"""</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <formula1>"Slit:2"",Slit:4"",Slit:8"",Slit:16"""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D32" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"EMCCD,CCD"</formula1>
@@ -13428,14 +13415,7 @@
       <formula1>"Gal,QSO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D11" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>"Slit:4""","Slit:6""","Slit:8"""</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"Slit:4"",Slit:6"",Slit:8"""</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <formula1>"Slit:4"",Slit:6"",Slit:8"""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N5" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"150,300"</formula1>
@@ -13563,7 +13543,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -13588,7 +13568,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="198"/>
+      <c r="A3" s="201"/>
       <c r="B3" s="40" t="s">
         <v>45</v>
       </c>
@@ -13603,7 +13583,7 @@
       <c r="I3" s="142"/>
     </row>
     <row r="4" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="40" t="s">
         <v>48</v>
       </c>
@@ -13626,7 +13606,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="212" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="143" t="s">
@@ -13655,7 +13635,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="143" t="s">
         <v>209</v>
       </c>
@@ -13682,7 +13662,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="198"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="143" t="s">
         <v>211</v>
       </c>
@@ -13709,7 +13689,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="198"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="143" t="s">
         <v>75</v>
       </c>
@@ -13741,7 +13721,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="198"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="143" t="s">
         <v>77</v>
       </c>
@@ -13768,7 +13748,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="143" t="s">
         <v>101</v>
       </c>
@@ -13795,7 +13775,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="211" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="40" t="s">
@@ -13824,7 +13804,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="40" t="s">
         <v>111</v>
       </c>
@@ -13857,7 +13837,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="40" t="s">
         <v>113</v>
       </c>
@@ -13884,7 +13864,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="198"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="40" t="s">
         <v>115</v>
       </c>
@@ -13911,7 +13891,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="198"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="40" t="s">
         <v>117</v>
       </c>
@@ -13938,7 +13918,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="198"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="40" t="s">
         <v>118</v>
       </c>
@@ -13965,7 +13945,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="213" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="150" t="s">
@@ -13994,7 +13974,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="198"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="151" t="s">
         <v>134</v>
       </c>
@@ -14021,7 +14001,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="198"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="150" t="s">
         <v>136</v>
       </c>
@@ -14053,7 +14033,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="198"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="150" t="s">
         <v>138</v>
       </c>
@@ -14080,7 +14060,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="198"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="152" t="s">
         <v>140</v>
       </c>
@@ -14107,7 +14087,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="214" t="s">
         <v>142</v>
       </c>
       <c r="B22" s="153" t="s">
@@ -14136,7 +14116,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="198"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="153" t="s">
         <v>144</v>
       </c>
@@ -14163,7 +14143,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="198"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="153" t="s">
         <v>145</v>
       </c>
@@ -14190,7 +14170,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="198"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="153" t="s">
         <v>146</v>
       </c>
@@ -14217,7 +14197,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="198"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="153" t="s">
         <v>148</v>
       </c>
@@ -14248,7 +14228,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="198"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="153" t="s">
         <v>149</v>
       </c>
@@ -14275,7 +14255,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="198"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="153" t="s">
         <v>151</v>
       </c>
@@ -14302,7 +14282,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="212" t="s">
+      <c r="A29" s="215" t="s">
         <v>153</v>
       </c>
       <c r="B29" s="154" t="s">
@@ -14333,7 +14313,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="198"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="154" t="s">
         <v>156</v>
       </c>
@@ -14364,7 +14344,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="198"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="154" t="s">
         <v>157</v>
       </c>
@@ -14391,7 +14371,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="216" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="106" t="s">
@@ -14420,7 +14400,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="198"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="106" t="s">
         <v>175</v>
       </c>
@@ -14447,7 +14427,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="198"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="106" t="s">
         <v>177</v>
       </c>
@@ -14474,7 +14454,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="198"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="106" t="s">
         <v>178</v>
       </c>
@@ -14501,7 +14481,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="198"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="106" t="s">
         <v>218</v>
       </c>
@@ -14530,7 +14510,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="198"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="106" t="s">
         <v>182</v>
       </c>
@@ -14557,7 +14537,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="198"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="106" t="s">
         <v>183</v>
       </c>
@@ -14584,7 +14564,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="206" t="s">
+      <c r="A39" s="209" t="s">
         <v>185</v>
       </c>
       <c r="B39" s="156" t="s">
@@ -14613,7 +14593,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="198"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="157" t="s">
         <v>188</v>
       </c>
@@ -14640,7 +14620,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="198"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="157" t="s">
         <v>190</v>
       </c>
@@ -14667,7 +14647,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="198"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="157" t="s">
         <v>192</v>
       </c>
@@ -14694,7 +14674,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="210" t="s">
         <v>193</v>
       </c>
       <c r="B43" s="158" t="s">
@@ -14723,7 +14703,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="198"/>
+      <c r="A44" s="201"/>
       <c r="B44" s="157" t="s">
         <v>196</v>
       </c>
@@ -14750,7 +14730,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="198"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="137" t="s">
         <v>198</v>
       </c>
@@ -53761,19 +53741,12 @@
       <c r="Z1000" s="163"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1 F1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1 F1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>